--- a/data_processed/20250716/BTCUSDQMOMENT_20250716.xlsx
+++ b/data_processed/20250716/BTCUSDQMOMENT_20250716.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>18.59433234824288</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.3864313882071876</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2088418595083264</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7052803262679067</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.01479743913432</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250716/BTCUSDQMOMENT_20250716.xlsx
+++ b/data_processed/20250716/BTCUSDQMOMENT_20250716.xlsx
@@ -628,19 +628,19 @@
         <v>0.2931506849315069</v>
       </c>
       <c r="D5" t="n">
-        <v>122062.4446509776</v>
+        <v>121946.9108292361</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.003925039990679668</v>
+        <v>-0.0082480150923689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2134227098995212</v>
+        <v>0.2307169291066302</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4455635446028126</v>
+        <v>-1.015666674325183</v>
       </c>
       <c r="H5" t="n">
-        <v>7.137399099243276</v>
+        <v>11.60767055117902</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4465753424657534</v>
       </c>
       <c r="D7" t="n">
-        <v>123212.171688536</v>
+        <v>123206.4999981723</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02176929306525151</v>
+        <v>-0.02247645405955778</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2574173139554589</v>
+        <v>0.2631795808157445</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.383671387478608</v>
+        <v>-1.615194553277307</v>
       </c>
       <c r="H7" t="n">
-        <v>13.02688432780149</v>
+        <v>15.74634044432639</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.8684931506849315</v>
       </c>
       <c r="D8" t="n">
-        <v>124686.8983360609</v>
+        <v>124705.0613436273</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04574543381455001</v>
+        <v>-0.04287349815143904</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2410230032398018</v>
+        <v>0.2221166801899969</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.604884552540853</v>
+        <v>-0.9041071097604515</v>
       </c>
       <c r="H8" t="n">
-        <v>14.11530133378618</v>
+        <v>7.332362305669718</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9452054794520548</v>
       </c>
       <c r="D9" t="n">
-        <v>126309.2949714253</v>
+        <v>126311.4230927655</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07567126709733063</v>
+        <v>-0.07511570758779666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3522599076665849</v>
+        <v>0.3479963475284348</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.796933594443734</v>
+        <v>-1.70977567440395</v>
       </c>
       <c r="H9" t="n">
-        <v>11.48432675387456</v>
+        <v>10.65412567188488</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.194520547945205</v>
       </c>
       <c r="D10" t="n">
-        <v>127876.341610271</v>
+        <v>127879.1725034366</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1094342024051348</v>
+        <v>-0.1104730313090675</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4360041617084699</v>
+        <v>0.443976593596582</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.856479386243262</v>
+        <v>-1.951602191271967</v>
       </c>
       <c r="H10" t="n">
-        <v>9.198496394921614</v>
+        <v>9.980662596743176</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.441095890410959</v>
       </c>
       <c r="D11" t="n">
-        <v>130027.875061102</v>
+        <v>130025.3427526359</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1233571467767</v>
+        <v>-0.1243643239224585</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4368647503117848</v>
+        <v>0.4433521965249804</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.619856600109357</v>
+        <v>-1.687984801689959</v>
       </c>
       <c r="H11" t="n">
-        <v>7.565547162438151</v>
+        <v>8.061895370126855</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -950,19 +950,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D14" t="n">
-        <v>119662.1703945185</v>
+        <v>119651.6177166612</v>
       </c>
       <c r="E14" t="n">
-        <v>0.050701271008399</v>
+        <v>0.05023738386003348</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1650070899118433</v>
+        <v>0.1635972942669265</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.703895554418338</v>
+        <v>-1.789809345182317</v>
       </c>
       <c r="H14" t="n">
-        <v>20.03574771706874</v>
+        <v>19.86502897929982</v>
       </c>
       <c r="I14" t="n">
         <v>-0.03249808463646837</v>
@@ -1028,19 +1028,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D16" t="n">
-        <v>119626.9941262409</v>
+        <v>119660.6637560399</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04352322061522715</v>
+        <v>0.04653120129435591</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1821730150863688</v>
+        <v>0.1633533670516294</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.536577745708872</v>
+        <v>-0.391049677931278</v>
       </c>
       <c r="H16" t="n">
-        <v>20.59019072024824</v>
+        <v>8.70028301677544</v>
       </c>
       <c r="I16" t="n">
         <v>-0.03157016641315261</v>
@@ -1154,19 +1154,19 @@
         <v>0.06301369863013699</v>
       </c>
       <c r="D19" t="n">
-        <v>120475.549799856</v>
+        <v>120532.1712405688</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03725507316688681</v>
+        <v>0.04033182424523526</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1925715597686011</v>
+        <v>0.1792797382196268</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9097640714286199</v>
+        <v>-0.2539190280963102</v>
       </c>
       <c r="H19" t="n">
-        <v>12.21559988370374</v>
+        <v>5.846359812702327</v>
       </c>
       <c r="I19" t="n">
         <v>-0.270416622467714</v>

--- a/data_processed/20250716/BTCUSDQMOMENT_20250716.xlsx
+++ b/data_processed/20250716/BTCUSDQMOMENT_20250716.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>16.28213507729088</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.5994518851498684</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.272804126445654</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.3387027169055232</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.300198810175994</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250716/BTCUSDQMOMENT_20250716.xlsx
+++ b/data_processed/20250716/BTCUSDQMOMENT_20250716.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>11.60767055117902</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-0.6575302404215204</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4508445361474317</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.09288533878809677</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.496184122438338</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
